--- a/API接口测试/day4/api接口框架/data/cases_data.xlsx
+++ b/API接口测试/day4/api接口框架/data/cases_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>case_id</t>
   </si>
@@ -24,6 +24,9 @@
     <t>title</t>
   </si>
   <si>
+    <t>url</t>
+  </si>
+  <si>
     <t>method</t>
   </si>
   <si>
@@ -36,40 +39,57 @@
     <t>expected</t>
   </si>
   <si>
-    <t>注册成功</t>
+    <t>手机号格式无效</t>
+  </si>
+  <si>
+    <t>/member/register</t>
   </si>
   <si>
     <t>post</t>
   </si>
   <si>
-    <t>{"mobile_phone":"15170717372","pwd":"12345678"}</t>
+    <t>{"mobile_phone":"151","pwd":"12345678"}</t>
   </si>
   <si>
     <t>{"X-Lemonban-Media-Type":"lemonban.v2"}</t>
+  </si>
+  <si>
+    <t>{
+    "code": 2,
+    "msg": "无效的手机格式",
+    "data": null,
+    "copyright": "Copyright 柠檬班 © 2017-2020 湖南省零檬信息技术有限公司 All Rights Reserved"
+}</t>
+  </si>
+  <si>
+    <t>手机号为空</t>
+  </si>
+  <si>
+    <t>{"mobile_phone":"","pwd":"12345678"}</t>
+  </si>
+  <si>
+    <t>{
+    "code": 1,
+    "msg": "手机号为空",
+    "data": null,
+    "copyright": "Copyright 柠檬班 © 2017-2020 湖南省零檬信息技术有限公司 All Rights Reserved"
+}</t>
+  </si>
+  <si>
+    <t>注册手机号存在</t>
+  </si>
+  <si>
+    <t>{"mobile_phone":"18270747310","pwd":"12345678"}</t>
   </si>
   <si>
     <t>{
     "code": 0,
     "msg": "OK",
     "data": {
-        "id": 1237000345,
+        "id": 1237002773,
         "reg_name": "小柠檬",
-        "mobile_phone": "15170717374"
+        "mobile_phone": "18270747310"
     },
-    "copyright": "Copyright 柠檬班 © 2017-2020 湖南省零檬信息技术有限公司 All Rights Reserved"
-}</t>
-  </si>
-  <si>
-    <t>手机号为空</t>
-  </si>
-  <si>
-    <t>{"mobile_phone":"None","pwd":"12345678"}</t>
-  </si>
-  <si>
-    <t>{
-    "code": 1,
-    "msg": "手机号为空",
-    "data": "null",
     "copyright": "Copyright 柠檬班 © 2017-2020 湖南省零檬信息技术有限公司 All Rights Reserved"
 }</t>
   </si>
@@ -79,10 +99,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -93,8 +113,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -108,17 +159,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -131,63 +204,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -200,7 +220,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,23 +235,23 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,187 +266,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,56 +484,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -537,6 +507,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -545,10 +565,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -557,138 +577,147 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1042,21 +1071,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="51.625" customWidth="1"/>
-    <col min="5" max="5" width="41.375" customWidth="1"/>
-    <col min="6" max="6" width="101.375" customWidth="1"/>
+    <col min="2" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="51.625" customWidth="1"/>
+    <col min="6" max="6" width="41.375" customWidth="1"/>
+    <col min="7" max="7" width="101.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1075,48 +1104,85 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" ht="135" spans="1:6">
+    <row r="2" ht="81" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
         <v>7</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" ht="81" spans="1:6">
+    <row r="3" ht="81" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" ht="135" spans="1:7">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C3" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C4" r:id="rId1" display="/member/register"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/API接口测试/day4/api接口框架/data/cases_data.xlsx
+++ b/API接口测试/day4/api接口框架/data/cases_data.xlsx
@@ -55,10 +55,8 @@
   </si>
   <si>
     <t>{
-    "code": 2,
-    "msg": "无效的手机格式",
-    "data": null,
-    "copyright": "Copyright 柠檬班 © 2017-2020 湖南省零檬信息技术有限公司 All Rights Reserved"
+ "code": 2,
+ "msg": "无效的手机格式"
 }</t>
   </si>
   <si>
@@ -70,27 +68,19 @@
   <si>
     <t>{
     "code": 1,
-    "msg": "手机号为空",
-    "data": null,
-    "copyright": "Copyright 柠檬班 © 2017-2020 湖南省零檬信息技术有限公司 All Rights Reserved"
+    "msg": "手机号为空"
 }</t>
   </si>
   <si>
-    <t>注册手机号存在</t>
-  </si>
-  <si>
-    <t>{"mobile_phone":"18270747310","pwd":"12345678"}</t>
+    <t>注册成功</t>
+  </si>
+  <si>
+    <t>{"mobile_phone":"#mobile_phone#","pwd":"12345678"}</t>
   </si>
   <si>
     <t>{
     "code": 0,
-    "msg": "OK",
-    "data": {
-        "id": 1237002773,
-        "reg_name": "小柠檬",
-        "mobile_phone": "18270747310"
-    },
-    "copyright": "Copyright 柠檬班 © 2017-2020 湖南省零檬信息技术有限公司 All Rights Reserved"
+    "msg": "OK"
 }</t>
   </si>
 </sst>
@@ -99,10 +89,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -137,22 +127,58 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,33 +191,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -203,6 +215,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -219,39 +239,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,187 +256,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,11 +465,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,24 +497,29 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,17 +547,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -565,10 +555,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -577,16 +567,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -598,116 +588,116 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -719,9 +709,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1073,8 +1060,8 @@
   <sheetPr/>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
@@ -1108,7 +1095,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="81" spans="1:7">
+    <row r="2" ht="54" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1131,7 +1118,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" ht="81" spans="1:7">
+    <row r="3" ht="54" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1154,7 +1141,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" ht="135" spans="1:7">
+    <row r="4" ht="54" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1173,7 +1160,7 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/API接口测试/day4/api接口框架/data/cases_data.xlsx
+++ b/API接口测试/day4/api接口框架/data/cases_data.xlsx
@@ -89,10 +89,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -127,14 +127,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,61 +140,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,9 +156,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,9 +218,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,31 +256,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,127 +424,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,19 +436,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,6 +447,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -497,20 +512,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,23 +531,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,10 +555,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -567,10 +567,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -588,112 +588,112 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1061,7 +1061,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
